--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="121">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>['21']</t>
+  </si>
+  <si>
+    <t>['14', '62']</t>
   </si>
   <si>
     <t>['14']</t>
@@ -735,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK31"/>
+  <dimension ref="A1:BK32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -979,7 +982,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1552,7 +1555,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1642,7 +1645,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1934,7 +1937,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -2125,7 +2128,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2316,7 +2319,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2507,7 +2510,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2698,7 +2701,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2889,7 +2892,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -2976,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT12">
         <v>1</v>
@@ -3653,7 +3656,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -3844,7 +3847,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4035,7 +4038,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4226,7 +4229,7 @@
         <v>83</v>
       </c>
       <c r="P19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4316,7 +4319,7 @@
         <v>0.5</v>
       </c>
       <c r="AT19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU19">
         <v>1.87</v>
@@ -4417,7 +4420,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4608,7 +4611,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4799,7 +4802,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -4990,7 +4993,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5181,7 +5184,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5372,7 +5375,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6518,7 +6521,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6660,6 +6663,197 @@
       </c>
       <c r="BK31">
         <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>5121016</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>44996.75</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>102</v>
+      </c>
+      <c r="P32" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q32">
+        <v>6</v>
+      </c>
+      <c r="R32">
+        <v>8</v>
+      </c>
+      <c r="S32">
+        <v>14</v>
+      </c>
+      <c r="T32">
+        <v>3.4</v>
+      </c>
+      <c r="U32">
+        <v>1.95</v>
+      </c>
+      <c r="V32">
+        <v>3.25</v>
+      </c>
+      <c r="W32">
+        <v>1.51</v>
+      </c>
+      <c r="X32">
+        <v>2.39</v>
+      </c>
+      <c r="Y32">
+        <v>3.34</v>
+      </c>
+      <c r="Z32">
+        <v>1.28</v>
+      </c>
+      <c r="AA32">
+        <v>8</v>
+      </c>
+      <c r="AB32">
+        <v>1.05</v>
+      </c>
+      <c r="AC32">
+        <v>2.59</v>
+      </c>
+      <c r="AD32">
+        <v>3.09</v>
+      </c>
+      <c r="AE32">
+        <v>2.44</v>
+      </c>
+      <c r="AF32">
+        <v>1.06</v>
+      </c>
+      <c r="AG32">
+        <v>6.8</v>
+      </c>
+      <c r="AH32">
+        <v>1.43</v>
+      </c>
+      <c r="AI32">
+        <v>2.6</v>
+      </c>
+      <c r="AJ32">
+        <v>2.14</v>
+      </c>
+      <c r="AK32">
+        <v>1.63</v>
+      </c>
+      <c r="AL32">
+        <v>1.98</v>
+      </c>
+      <c r="AM32">
+        <v>1.72</v>
+      </c>
+      <c r="AN32">
+        <v>1.46</v>
+      </c>
+      <c r="AO32">
+        <v>1.34</v>
+      </c>
+      <c r="AP32">
+        <v>1.44</v>
+      </c>
+      <c r="AQ32">
+        <v>1</v>
+      </c>
+      <c r="AR32">
+        <v>3</v>
+      </c>
+      <c r="AS32">
+        <v>2</v>
+      </c>
+      <c r="AT32">
+        <v>2</v>
+      </c>
+      <c r="AU32">
+        <v>2.19</v>
+      </c>
+      <c r="AV32">
+        <v>1.44</v>
+      </c>
+      <c r="AW32">
+        <v>3.63</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>1.93</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>6</v>
+      </c>
+      <c r="BG32">
+        <v>4</v>
+      </c>
+      <c r="BH32">
+        <v>7</v>
+      </c>
+      <c r="BI32">
+        <v>8</v>
+      </c>
+      <c r="BJ32">
+        <v>13</v>
+      </c>
+      <c r="BK32">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -325,6 +325,18 @@
     <t>['14', '62']</t>
   </si>
   <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['37', '90+8']</t>
+  </si>
+  <si>
+    <t>['78', '83']</t>
+  </si>
+  <si>
+    <t>['84', '89']</t>
+  </si>
+  <si>
     <t>['14']</t>
   </si>
   <si>
@@ -340,9 +352,6 @@
     <t>['32', '43', '65']</t>
   </si>
   <si>
-    <t>['42']</t>
-  </si>
-  <si>
     <t>['3', '6']</t>
   </si>
   <si>
@@ -377,6 +386,15 @@
   </si>
   <si>
     <t>['24']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['12']</t>
   </si>
 </sst>
 </file>
@@ -738,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK32"/>
+  <dimension ref="A1:BK38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,7 +1000,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1069,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT2">
         <v>0.33</v>
@@ -1260,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1555,7 +1573,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1937,7 +1955,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -2027,7 +2045,7 @@
         <v>3</v>
       </c>
       <c r="AT7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2128,7 +2146,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2319,7 +2337,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2510,7 +2528,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2701,7 +2719,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2788,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -2892,7 +2910,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3173,7 +3191,7 @@
         <v>2</v>
       </c>
       <c r="AT13">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3555,7 +3573,7 @@
         <v>1.5</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU15">
         <v>1.4</v>
@@ -3656,7 +3674,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -3743,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT16">
         <v>1.33</v>
@@ -3847,7 +3865,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -3934,7 +3952,7 @@
         <v>3</v>
       </c>
       <c r="AS17">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT17">
         <v>1.5</v>
@@ -4038,7 +4056,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4128,7 +4146,7 @@
         <v>1.67</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU18">
         <v>2.15</v>
@@ -4229,7 +4247,7 @@
         <v>83</v>
       </c>
       <c r="P19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4316,7 +4334,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT19">
         <v>2</v>
@@ -4420,7 +4438,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4507,10 +4525,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT20">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU20">
         <v>2.07</v>
@@ -4611,7 +4629,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4802,7 +4820,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -4993,7 +5011,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5184,7 +5202,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5274,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="AT24">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU24">
         <v>1.98</v>
@@ -5375,7 +5393,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6521,7 +6539,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6854,6 +6872,1152 @@
       </c>
       <c r="BK32">
         <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>5121015</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2">
+        <v>44997.84375</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33" t="s">
+        <v>100</v>
+      </c>
+      <c r="P33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q33">
+        <v>7</v>
+      </c>
+      <c r="R33">
+        <v>4</v>
+      </c>
+      <c r="S33">
+        <v>11</v>
+      </c>
+      <c r="T33">
+        <v>3.1</v>
+      </c>
+      <c r="U33">
+        <v>1.95</v>
+      </c>
+      <c r="V33">
+        <v>3.6</v>
+      </c>
+      <c r="W33">
+        <v>1.47</v>
+      </c>
+      <c r="X33">
+        <v>2.5</v>
+      </c>
+      <c r="Y33">
+        <v>3.22</v>
+      </c>
+      <c r="Z33">
+        <v>1.3</v>
+      </c>
+      <c r="AA33">
+        <v>8.5</v>
+      </c>
+      <c r="AB33">
+        <v>1.05</v>
+      </c>
+      <c r="AC33">
+        <v>2.37</v>
+      </c>
+      <c r="AD33">
+        <v>3.1</v>
+      </c>
+      <c r="AE33">
+        <v>2.75</v>
+      </c>
+      <c r="AF33">
+        <v>1.05</v>
+      </c>
+      <c r="AG33">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH33">
+        <v>1.36</v>
+      </c>
+      <c r="AI33">
+        <v>2.88</v>
+      </c>
+      <c r="AJ33">
+        <v>2.23</v>
+      </c>
+      <c r="AK33">
+        <v>1.58</v>
+      </c>
+      <c r="AL33">
+        <v>1.91</v>
+      </c>
+      <c r="AM33">
+        <v>1.85</v>
+      </c>
+      <c r="AN33">
+        <v>1.35</v>
+      </c>
+      <c r="AO33">
+        <v>1.32</v>
+      </c>
+      <c r="AP33">
+        <v>1.53</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0.5</v>
+      </c>
+      <c r="AT33">
+        <v>0.33</v>
+      </c>
+      <c r="AU33">
+        <v>1.66</v>
+      </c>
+      <c r="AV33">
+        <v>1.23</v>
+      </c>
+      <c r="AW33">
+        <v>2.89</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>4</v>
+      </c>
+      <c r="BG33">
+        <v>6</v>
+      </c>
+      <c r="BH33">
+        <v>13</v>
+      </c>
+      <c r="BI33">
+        <v>9</v>
+      </c>
+      <c r="BJ33">
+        <v>17</v>
+      </c>
+      <c r="BK33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:63">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>5121021</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2">
+        <v>44997.89583333334</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>103</v>
+      </c>
+      <c r="P34" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34">
+        <v>4</v>
+      </c>
+      <c r="S34">
+        <v>8</v>
+      </c>
+      <c r="T34">
+        <v>2.5</v>
+      </c>
+      <c r="U34">
+        <v>2</v>
+      </c>
+      <c r="V34">
+        <v>4.75</v>
+      </c>
+      <c r="W34">
+        <v>1.44</v>
+      </c>
+      <c r="X34">
+        <v>2.62</v>
+      </c>
+      <c r="Y34">
+        <v>3.2</v>
+      </c>
+      <c r="Z34">
+        <v>1.3</v>
+      </c>
+      <c r="AA34">
+        <v>8.5</v>
+      </c>
+      <c r="AB34">
+        <v>1.05</v>
+      </c>
+      <c r="AC34">
+        <v>2</v>
+      </c>
+      <c r="AD34">
+        <v>3.13</v>
+      </c>
+      <c r="AE34">
+        <v>3.5</v>
+      </c>
+      <c r="AF34">
+        <v>1.05</v>
+      </c>
+      <c r="AG34">
+        <v>8</v>
+      </c>
+      <c r="AH34">
+        <v>1.36</v>
+      </c>
+      <c r="AI34">
+        <v>2.88</v>
+      </c>
+      <c r="AJ34">
+        <v>2.3</v>
+      </c>
+      <c r="AK34">
+        <v>1.62</v>
+      </c>
+      <c r="AL34">
+        <v>1.95</v>
+      </c>
+      <c r="AM34">
+        <v>1.81</v>
+      </c>
+      <c r="AN34">
+        <v>1.17</v>
+      </c>
+      <c r="AO34">
+        <v>1.25</v>
+      </c>
+      <c r="AP34">
+        <v>1.91</v>
+      </c>
+      <c r="AQ34">
+        <v>3</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>2.33</v>
+      </c>
+      <c r="AT34">
+        <v>0.5</v>
+      </c>
+      <c r="AU34">
+        <v>1.97</v>
+      </c>
+      <c r="AV34">
+        <v>1.11</v>
+      </c>
+      <c r="AW34">
+        <v>3.08</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>1.98</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>6</v>
+      </c>
+      <c r="BG34">
+        <v>3</v>
+      </c>
+      <c r="BH34">
+        <v>10</v>
+      </c>
+      <c r="BI34">
+        <v>7</v>
+      </c>
+      <c r="BJ34">
+        <v>16</v>
+      </c>
+      <c r="BK34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:63">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>5121142</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2">
+        <v>44999.75</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35" t="s">
+        <v>104</v>
+      </c>
+      <c r="P35" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q35">
+        <v>8</v>
+      </c>
+      <c r="R35">
+        <v>6</v>
+      </c>
+      <c r="S35">
+        <v>14</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <v>3.6</v>
+      </c>
+      <c r="W35">
+        <v>1.44</v>
+      </c>
+      <c r="X35">
+        <v>2.59</v>
+      </c>
+      <c r="Y35">
+        <v>3.04</v>
+      </c>
+      <c r="Z35">
+        <v>1.33</v>
+      </c>
+      <c r="AA35">
+        <v>7.8</v>
+      </c>
+      <c r="AB35">
+        <v>1.05</v>
+      </c>
+      <c r="AC35">
+        <v>2.14</v>
+      </c>
+      <c r="AD35">
+        <v>3.03</v>
+      </c>
+      <c r="AE35">
+        <v>3.56</v>
+      </c>
+      <c r="AF35">
+        <v>1.03</v>
+      </c>
+      <c r="AG35">
+        <v>7.9</v>
+      </c>
+      <c r="AH35">
+        <v>1.34</v>
+      </c>
+      <c r="AI35">
+        <v>2.88</v>
+      </c>
+      <c r="AJ35">
+        <v>2.15</v>
+      </c>
+      <c r="AK35">
+        <v>1.63</v>
+      </c>
+      <c r="AL35">
+        <v>1.83</v>
+      </c>
+      <c r="AM35">
+        <v>1.83</v>
+      </c>
+      <c r="AN35">
+        <v>1.33</v>
+      </c>
+      <c r="AO35">
+        <v>1.3</v>
+      </c>
+      <c r="AP35">
+        <v>1.57</v>
+      </c>
+      <c r="AQ35">
+        <v>3</v>
+      </c>
+      <c r="AR35">
+        <v>1.5</v>
+      </c>
+      <c r="AS35">
+        <v>3</v>
+      </c>
+      <c r="AT35">
+        <v>1</v>
+      </c>
+      <c r="AU35">
+        <v>1.83</v>
+      </c>
+      <c r="AV35">
+        <v>1.97</v>
+      </c>
+      <c r="AW35">
+        <v>3.8</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
+      <c r="BF35">
+        <v>6</v>
+      </c>
+      <c r="BG35">
+        <v>5</v>
+      </c>
+      <c r="BH35">
+        <v>6</v>
+      </c>
+      <c r="BI35">
+        <v>7</v>
+      </c>
+      <c r="BJ35">
+        <v>12</v>
+      </c>
+      <c r="BK35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:63">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>5121020</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2">
+        <v>44999.75</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>105</v>
+      </c>
+      <c r="P36" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q36">
+        <v>4</v>
+      </c>
+      <c r="R36">
+        <v>5</v>
+      </c>
+      <c r="S36">
+        <v>9</v>
+      </c>
+      <c r="T36">
+        <v>2.63</v>
+      </c>
+      <c r="U36">
+        <v>2.05</v>
+      </c>
+      <c r="V36">
+        <v>4</v>
+      </c>
+      <c r="W36">
+        <v>1.5</v>
+      </c>
+      <c r="X36">
+        <v>2.4</v>
+      </c>
+      <c r="Y36">
+        <v>3.1</v>
+      </c>
+      <c r="Z36">
+        <v>1.33</v>
+      </c>
+      <c r="AA36">
+        <v>7.6</v>
+      </c>
+      <c r="AB36">
+        <v>1.05</v>
+      </c>
+      <c r="AC36">
+        <v>2.03</v>
+      </c>
+      <c r="AD36">
+        <v>2.99</v>
+      </c>
+      <c r="AE36">
+        <v>3.46</v>
+      </c>
+      <c r="AF36">
+        <v>1.03</v>
+      </c>
+      <c r="AG36">
+        <v>10</v>
+      </c>
+      <c r="AH36">
+        <v>1.33</v>
+      </c>
+      <c r="AI36">
+        <v>3</v>
+      </c>
+      <c r="AJ36">
+        <v>2.22</v>
+      </c>
+      <c r="AK36">
+        <v>1.59</v>
+      </c>
+      <c r="AL36">
+        <v>2</v>
+      </c>
+      <c r="AM36">
+        <v>1.75</v>
+      </c>
+      <c r="AN36">
+        <v>1.22</v>
+      </c>
+      <c r="AO36">
+        <v>1.28</v>
+      </c>
+      <c r="AP36">
+        <v>1.63</v>
+      </c>
+      <c r="AQ36">
+        <v>1.5</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>2</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>1.91</v>
+      </c>
+      <c r="AV36">
+        <v>1.4</v>
+      </c>
+      <c r="AW36">
+        <v>3.31</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>1.85</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36">
+        <v>3</v>
+      </c>
+      <c r="BG36">
+        <v>4</v>
+      </c>
+      <c r="BH36">
+        <v>9</v>
+      </c>
+      <c r="BI36">
+        <v>6</v>
+      </c>
+      <c r="BJ36">
+        <v>12</v>
+      </c>
+      <c r="BK36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:63">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>5121017</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2">
+        <v>44999.85416666666</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37" t="s">
+        <v>106</v>
+      </c>
+      <c r="P37" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <v>7</v>
+      </c>
+      <c r="S37">
+        <v>10</v>
+      </c>
+      <c r="T37">
+        <v>3.25</v>
+      </c>
+      <c r="U37">
+        <v>1.95</v>
+      </c>
+      <c r="V37">
+        <v>3.4</v>
+      </c>
+      <c r="W37">
+        <v>1.46</v>
+      </c>
+      <c r="X37">
+        <v>2.55</v>
+      </c>
+      <c r="Y37">
+        <v>2.85</v>
+      </c>
+      <c r="Z37">
+        <v>1.38</v>
+      </c>
+      <c r="AA37">
+        <v>6.5</v>
+      </c>
+      <c r="AB37">
+        <v>1.08</v>
+      </c>
+      <c r="AC37">
+        <v>2.43</v>
+      </c>
+      <c r="AD37">
+        <v>3.12</v>
+      </c>
+      <c r="AE37">
+        <v>2.82</v>
+      </c>
+      <c r="AF37">
+        <v>1.03</v>
+      </c>
+      <c r="AG37">
+        <v>10.25</v>
+      </c>
+      <c r="AH37">
+        <v>1.34</v>
+      </c>
+      <c r="AI37">
+        <v>2.95</v>
+      </c>
+      <c r="AJ37">
+        <v>2.15</v>
+      </c>
+      <c r="AK37">
+        <v>1.63</v>
+      </c>
+      <c r="AL37">
+        <v>1.78</v>
+      </c>
+      <c r="AM37">
+        <v>1.9</v>
+      </c>
+      <c r="AN37">
+        <v>1.43</v>
+      </c>
+      <c r="AO37">
+        <v>1.34</v>
+      </c>
+      <c r="AP37">
+        <v>1.42</v>
+      </c>
+      <c r="AQ37">
+        <v>3</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>3</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>1.99</v>
+      </c>
+      <c r="AV37">
+        <v>1.06</v>
+      </c>
+      <c r="AW37">
+        <v>3.05</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <v>6</v>
+      </c>
+      <c r="BG37">
+        <v>2</v>
+      </c>
+      <c r="BH37">
+        <v>7</v>
+      </c>
+      <c r="BI37">
+        <v>6</v>
+      </c>
+      <c r="BJ37">
+        <v>13</v>
+      </c>
+      <c r="BK37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:63">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>5121019</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44999.85416666666</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>99</v>
+      </c>
+      <c r="P38" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>9</v>
+      </c>
+      <c r="S38">
+        <v>13</v>
+      </c>
+      <c r="T38">
+        <v>2.88</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>3.75</v>
+      </c>
+      <c r="W38">
+        <v>1.46</v>
+      </c>
+      <c r="X38">
+        <v>2.55</v>
+      </c>
+      <c r="Y38">
+        <v>3.05</v>
+      </c>
+      <c r="Z38">
+        <v>1.32</v>
+      </c>
+      <c r="AA38">
+        <v>7.25</v>
+      </c>
+      <c r="AB38">
+        <v>1.06</v>
+      </c>
+      <c r="AC38">
+        <v>2.25</v>
+      </c>
+      <c r="AD38">
+        <v>3.2</v>
+      </c>
+      <c r="AE38">
+        <v>3.04</v>
+      </c>
+      <c r="AF38">
+        <v>1.06</v>
+      </c>
+      <c r="AG38">
+        <v>9.25</v>
+      </c>
+      <c r="AH38">
+        <v>1.36</v>
+      </c>
+      <c r="AI38">
+        <v>2.95</v>
+      </c>
+      <c r="AJ38">
+        <v>2.06</v>
+      </c>
+      <c r="AK38">
+        <v>1.68</v>
+      </c>
+      <c r="AL38">
+        <v>1.87</v>
+      </c>
+      <c r="AM38">
+        <v>1.87</v>
+      </c>
+      <c r="AN38">
+        <v>1.3</v>
+      </c>
+      <c r="AO38">
+        <v>1.25</v>
+      </c>
+      <c r="AP38">
+        <v>1.6</v>
+      </c>
+      <c r="AQ38">
+        <v>0.5</v>
+      </c>
+      <c r="AR38">
+        <v>1.5</v>
+      </c>
+      <c r="AS38">
+        <v>1.33</v>
+      </c>
+      <c r="AT38">
+        <v>1</v>
+      </c>
+      <c r="AU38">
+        <v>1.85</v>
+      </c>
+      <c r="AV38">
+        <v>1.41</v>
+      </c>
+      <c r="AW38">
+        <v>3.26</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>1.8</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>0</v>
+      </c>
+      <c r="BF38">
+        <v>2</v>
+      </c>
+      <c r="BG38">
+        <v>6</v>
+      </c>
+      <c r="BH38">
+        <v>7</v>
+      </c>
+      <c r="BI38">
+        <v>10</v>
+      </c>
+      <c r="BJ38">
+        <v>9</v>
+      </c>
+      <c r="BK38">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="135">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,12 +343,21 @@
     <t>['59', '75', '90+1']</t>
   </si>
   <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
     <t>['14']</t>
   </si>
   <si>
-    <t>['90+5']</t>
-  </si>
-  <si>
     <t>['49']</t>
   </si>
   <si>
@@ -404,6 +413,12 @@
   </si>
   <si>
     <t>['23']</t>
+  </si>
+  <si>
+    <t>['4', '48']</t>
+  </si>
+  <si>
+    <t>['30', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -765,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK41"/>
+  <dimension ref="A1:BK45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1009,7 +1024,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1478,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AT4">
         <v>1.75</v>
@@ -1582,7 +1597,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1863,7 +1878,7 @@
         <v>1.67</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1964,7 +1979,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -2155,7 +2170,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2245,7 +2260,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2346,7 +2361,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2433,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2728,7 +2743,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2818,7 +2833,7 @@
         <v>1.33</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -2919,7 +2934,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3197,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT13">
         <v>1</v>
@@ -3683,7 +3698,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -3874,7 +3889,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -3964,7 +3979,7 @@
         <v>2.33</v>
       </c>
       <c r="AT17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>2.18</v>
@@ -4065,7 +4080,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4256,7 +4271,7 @@
         <v>83</v>
       </c>
       <c r="P19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4447,7 +4462,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4638,7 +4653,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4829,7 +4844,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5020,7 +5035,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5211,7 +5226,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5298,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24">
         <v>1</v>
@@ -5402,7 +5417,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5489,10 +5504,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT25">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5871,10 +5886,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT27">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU27">
         <v>1.39</v>
@@ -6065,7 +6080,7 @@
         <v>2.33</v>
       </c>
       <c r="AT28">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU28">
         <v>2.42</v>
@@ -6444,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AT30">
         <v>0.5</v>
@@ -6548,7 +6563,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6930,7 +6945,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7121,7 +7136,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7312,7 +7327,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -7503,7 +7518,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8267,7 +8282,7 @@
         <v>83</v>
       </c>
       <c r="P40" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q40">
         <v>8</v>
@@ -8600,6 +8615,770 @@
       </c>
       <c r="BK41">
         <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5121022</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45005.75</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>109</v>
+      </c>
+      <c r="P42" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q42">
+        <v>10</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>11</v>
+      </c>
+      <c r="T42">
+        <v>3.1</v>
+      </c>
+      <c r="U42">
+        <v>2</v>
+      </c>
+      <c r="V42">
+        <v>3.5</v>
+      </c>
+      <c r="W42">
+        <v>1.48</v>
+      </c>
+      <c r="X42">
+        <v>2.5</v>
+      </c>
+      <c r="Y42">
+        <v>3.1</v>
+      </c>
+      <c r="Z42">
+        <v>1.32</v>
+      </c>
+      <c r="AA42">
+        <v>7.25</v>
+      </c>
+      <c r="AB42">
+        <v>1.06</v>
+      </c>
+      <c r="AC42">
+        <v>2.46</v>
+      </c>
+      <c r="AD42">
+        <v>3.2</v>
+      </c>
+      <c r="AE42">
+        <v>2.49</v>
+      </c>
+      <c r="AF42">
+        <v>1.07</v>
+      </c>
+      <c r="AG42">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AH42">
+        <v>1.37</v>
+      </c>
+      <c r="AI42">
+        <v>2.87</v>
+      </c>
+      <c r="AJ42">
+        <v>2.08</v>
+      </c>
+      <c r="AK42">
+        <v>1.67</v>
+      </c>
+      <c r="AL42">
+        <v>1.88</v>
+      </c>
+      <c r="AM42">
+        <v>1.82</v>
+      </c>
+      <c r="AN42">
+        <v>1.35</v>
+      </c>
+      <c r="AO42">
+        <v>1.28</v>
+      </c>
+      <c r="AP42">
+        <v>1.52</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>2</v>
+      </c>
+      <c r="AS42">
+        <v>0.5</v>
+      </c>
+      <c r="AT42">
+        <v>1.67</v>
+      </c>
+      <c r="AU42">
+        <v>1.22</v>
+      </c>
+      <c r="AV42">
+        <v>1.53</v>
+      </c>
+      <c r="AW42">
+        <v>2.75</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>1.37</v>
+      </c>
+      <c r="BD42">
+        <v>1.65</v>
+      </c>
+      <c r="BE42">
+        <v>2.07</v>
+      </c>
+      <c r="BF42">
+        <v>8</v>
+      </c>
+      <c r="BG42">
+        <v>3</v>
+      </c>
+      <c r="BH42">
+        <v>9</v>
+      </c>
+      <c r="BI42">
+        <v>0</v>
+      </c>
+      <c r="BJ42">
+        <v>17</v>
+      </c>
+      <c r="BK42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:63">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5121028</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45005.75</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>110</v>
+      </c>
+      <c r="P43" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q43">
+        <v>15</v>
+      </c>
+      <c r="R43">
+        <v>3</v>
+      </c>
+      <c r="S43">
+        <v>18</v>
+      </c>
+      <c r="T43">
+        <v>2.88</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
+      </c>
+      <c r="V43">
+        <v>3.75</v>
+      </c>
+      <c r="W43">
+        <v>1.45</v>
+      </c>
+      <c r="X43">
+        <v>2.55</v>
+      </c>
+      <c r="Y43">
+        <v>3</v>
+      </c>
+      <c r="Z43">
+        <v>1.35</v>
+      </c>
+      <c r="AA43">
+        <v>7</v>
+      </c>
+      <c r="AB43">
+        <v>1.07</v>
+      </c>
+      <c r="AC43">
+        <v>2.41</v>
+      </c>
+      <c r="AD43">
+        <v>3.1</v>
+      </c>
+      <c r="AE43">
+        <v>2.6</v>
+      </c>
+      <c r="AF43">
+        <v>1.04</v>
+      </c>
+      <c r="AG43">
+        <v>8.5</v>
+      </c>
+      <c r="AH43">
+        <v>1.3</v>
+      </c>
+      <c r="AI43">
+        <v>3.2</v>
+      </c>
+      <c r="AJ43">
+        <v>2.06</v>
+      </c>
+      <c r="AK43">
+        <v>1.76</v>
+      </c>
+      <c r="AL43">
+        <v>1.82</v>
+      </c>
+      <c r="AM43">
+        <v>1.9</v>
+      </c>
+      <c r="AN43">
+        <v>1.29</v>
+      </c>
+      <c r="AO43">
+        <v>1.3</v>
+      </c>
+      <c r="AP43">
+        <v>1.55</v>
+      </c>
+      <c r="AQ43">
+        <v>2</v>
+      </c>
+      <c r="AR43">
+        <v>1</v>
+      </c>
+      <c r="AS43">
+        <v>1.33</v>
+      </c>
+      <c r="AT43">
+        <v>1.67</v>
+      </c>
+      <c r="AU43">
+        <v>1.7</v>
+      </c>
+      <c r="AV43">
+        <v>1.29</v>
+      </c>
+      <c r="AW43">
+        <v>2.99</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>1.27</v>
+      </c>
+      <c r="BB43">
+        <v>1.5</v>
+      </c>
+      <c r="BC43">
+        <v>1.93</v>
+      </c>
+      <c r="BD43">
+        <v>2.5</v>
+      </c>
+      <c r="BE43">
+        <v>3.5</v>
+      </c>
+      <c r="BF43">
+        <v>5</v>
+      </c>
+      <c r="BG43">
+        <v>7</v>
+      </c>
+      <c r="BH43">
+        <v>12</v>
+      </c>
+      <c r="BI43">
+        <v>5</v>
+      </c>
+      <c r="BJ43">
+        <v>17</v>
+      </c>
+      <c r="BK43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:63">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>5121025</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45005.85416666666</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>111</v>
+      </c>
+      <c r="P44" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q44">
+        <v>11</v>
+      </c>
+      <c r="R44">
+        <v>3</v>
+      </c>
+      <c r="S44">
+        <v>14</v>
+      </c>
+      <c r="T44">
+        <v>3.25</v>
+      </c>
+      <c r="U44">
+        <v>2</v>
+      </c>
+      <c r="V44">
+        <v>3.25</v>
+      </c>
+      <c r="W44">
+        <v>1.45</v>
+      </c>
+      <c r="X44">
+        <v>2.6</v>
+      </c>
+      <c r="Y44">
+        <v>2.95</v>
+      </c>
+      <c r="Z44">
+        <v>1.35</v>
+      </c>
+      <c r="AA44">
+        <v>7</v>
+      </c>
+      <c r="AB44">
+        <v>1.07</v>
+      </c>
+      <c r="AC44">
+        <v>2.32</v>
+      </c>
+      <c r="AD44">
+        <v>3.25</v>
+      </c>
+      <c r="AE44">
+        <v>2.62</v>
+      </c>
+      <c r="AF44">
+        <v>1.06</v>
+      </c>
+      <c r="AG44">
+        <v>9.65</v>
+      </c>
+      <c r="AH44">
+        <v>1.33</v>
+      </c>
+      <c r="AI44">
+        <v>3.05</v>
+      </c>
+      <c r="AJ44">
+        <v>2.06</v>
+      </c>
+      <c r="AK44">
+        <v>1.76</v>
+      </c>
+      <c r="AL44">
+        <v>1.78</v>
+      </c>
+      <c r="AM44">
+        <v>1.9</v>
+      </c>
+      <c r="AN44">
+        <v>1.45</v>
+      </c>
+      <c r="AO44">
+        <v>1.32</v>
+      </c>
+      <c r="AP44">
+        <v>1.42</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>1.5</v>
+      </c>
+      <c r="AS44">
+        <v>1</v>
+      </c>
+      <c r="AT44">
+        <v>1</v>
+      </c>
+      <c r="AU44">
+        <v>1.84</v>
+      </c>
+      <c r="AV44">
+        <v>1.86</v>
+      </c>
+      <c r="AW44">
+        <v>3.7</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>0</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>1.44</v>
+      </c>
+      <c r="BB44">
+        <v>1.8</v>
+      </c>
+      <c r="BC44">
+        <v>2.38</v>
+      </c>
+      <c r="BD44">
+        <v>3.3</v>
+      </c>
+      <c r="BE44">
+        <v>0</v>
+      </c>
+      <c r="BF44">
+        <v>7</v>
+      </c>
+      <c r="BG44">
+        <v>2</v>
+      </c>
+      <c r="BH44">
+        <v>9</v>
+      </c>
+      <c r="BI44">
+        <v>3</v>
+      </c>
+      <c r="BJ44">
+        <v>16</v>
+      </c>
+      <c r="BK44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:63">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5121027</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45005.85416666666</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" t="s">
+        <v>74</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" t="s">
+        <v>112</v>
+      </c>
+      <c r="P45" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q45">
+        <v>4</v>
+      </c>
+      <c r="R45">
+        <v>7</v>
+      </c>
+      <c r="S45">
+        <v>11</v>
+      </c>
+      <c r="T45">
+        <v>2.75</v>
+      </c>
+      <c r="U45">
+        <v>1.91</v>
+      </c>
+      <c r="V45">
+        <v>4.5</v>
+      </c>
+      <c r="W45">
+        <v>1.52</v>
+      </c>
+      <c r="X45">
+        <v>2.4</v>
+      </c>
+      <c r="Y45">
+        <v>3.3</v>
+      </c>
+      <c r="Z45">
+        <v>1.28</v>
+      </c>
+      <c r="AA45">
+        <v>7.75</v>
+      </c>
+      <c r="AB45">
+        <v>1.05</v>
+      </c>
+      <c r="AC45">
+        <v>1.99</v>
+      </c>
+      <c r="AD45">
+        <v>3</v>
+      </c>
+      <c r="AE45">
+        <v>3.5</v>
+      </c>
+      <c r="AF45">
+        <v>1.08</v>
+      </c>
+      <c r="AG45">
+        <v>7.8</v>
+      </c>
+      <c r="AH45">
+        <v>1.5</v>
+      </c>
+      <c r="AI45">
+        <v>2.6</v>
+      </c>
+      <c r="AJ45">
+        <v>2.45</v>
+      </c>
+      <c r="AK45">
+        <v>1.48</v>
+      </c>
+      <c r="AL45">
+        <v>2</v>
+      </c>
+      <c r="AM45">
+        <v>1.7</v>
+      </c>
+      <c r="AN45">
+        <v>1.24</v>
+      </c>
+      <c r="AO45">
+        <v>1.32</v>
+      </c>
+      <c r="AP45">
+        <v>1.7</v>
+      </c>
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+      <c r="AR45">
+        <v>2</v>
+      </c>
+      <c r="AS45">
+        <v>0.67</v>
+      </c>
+      <c r="AT45">
+        <v>2.33</v>
+      </c>
+      <c r="AU45">
+        <v>1.12</v>
+      </c>
+      <c r="AV45">
+        <v>1.05</v>
+      </c>
+      <c r="AW45">
+        <v>2.17</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>0</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+      <c r="BE45">
+        <v>0</v>
+      </c>
+      <c r="BF45">
+        <v>3</v>
+      </c>
+      <c r="BG45">
+        <v>5</v>
+      </c>
+      <c r="BH45">
+        <v>2</v>
+      </c>
+      <c r="BI45">
+        <v>2</v>
+      </c>
+      <c r="BJ45">
+        <v>5</v>
+      </c>
+      <c r="BK45">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="137">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -238,12 +238,12 @@
     <t>La Serena</t>
   </si>
   <si>
+    <t>Deportes Temuco</t>
+  </si>
+  <si>
     <t>Deportes Santa Cruz</t>
   </si>
   <si>
-    <t>Deportes Temuco</t>
-  </si>
-  <si>
     <t>Barnechea</t>
   </si>
   <si>
@@ -280,24 +280,24 @@
     <t>['45+3', '53', '84']</t>
   </si>
   <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
     <t>['39', '90']</t>
   </si>
   <si>
-    <t>['45+3']</t>
-  </si>
-  <si>
     <t>['46', '53']</t>
   </si>
   <si>
     <t>['45']</t>
   </si>
   <si>
+    <t>['25']</t>
+  </si>
+  <si>
     <t>['84']</t>
   </si>
   <si>
-    <t>['25']</t>
-  </si>
-  <si>
     <t>['36', '77', '85']</t>
   </si>
   <si>
@@ -328,12 +328,12 @@
     <t>['42']</t>
   </si>
   <si>
+    <t>['78', '83']</t>
+  </si>
+  <si>
     <t>['37', '90+8']</t>
   </si>
   <si>
-    <t>['78', '83']</t>
-  </si>
-  <si>
     <t>['84', '89']</t>
   </si>
   <si>
@@ -355,6 +355,9 @@
     <t>['37']</t>
   </si>
   <si>
+    <t>['29', '32', '40']</t>
+  </si>
+  <si>
     <t>['14']</t>
   </si>
   <si>
@@ -367,12 +370,12 @@
     <t>['32', '43', '65']</t>
   </si>
   <si>
+    <t>['90+8']</t>
+  </si>
+  <si>
     <t>['3', '6']</t>
   </si>
   <si>
-    <t>['90+8']</t>
-  </si>
-  <si>
     <t>['3', '66']</t>
   </si>
   <si>
@@ -406,12 +409,12 @@
     <t>['28']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
     <t>['15']</t>
   </si>
   <si>
-    <t>['12']</t>
-  </si>
-  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -419,6 +422,9 @@
   </si>
   <si>
     <t>['30', '90+5']</t>
+  </si>
+  <si>
+    <t>['45+1', '79']</t>
   </si>
 </sst>
 </file>
@@ -780,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK45"/>
+  <dimension ref="A1:BK46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1024,7 +1030,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1382,7 +1388,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1764,7 +1770,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1875,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT6">
         <v>2.33</v>
@@ -1979,7 +1985,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -2170,7 +2176,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2361,7 +2367,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2701,7 +2707,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5120996</v>
+        <v>5120994</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -2719,49 +2725,49 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O11" t="s">
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T11">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="U11">
         <v>1.95</v>
       </c>
       <c r="V11">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="W11">
         <v>1.48</v>
@@ -2770,58 +2776,58 @@
         <v>2.5</v>
       </c>
       <c r="Y11">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Z11">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AA11">
         <v>7.5</v>
       </c>
       <c r="AB11">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC11">
-        <v>2.29</v>
+        <v>1.91</v>
       </c>
       <c r="AD11">
-        <v>3.12</v>
+        <v>3.17</v>
       </c>
       <c r="AE11">
-        <v>3</v>
+        <v>3.98</v>
       </c>
       <c r="AF11">
         <v>1.07</v>
       </c>
       <c r="AG11">
-        <v>9.1</v>
+        <v>8.85</v>
       </c>
       <c r="AH11">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AI11">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AJ11">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="AK11">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="AL11">
         <v>1.9</v>
       </c>
       <c r="AM11">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AN11">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AO11">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AP11">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -2830,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AT11">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -2854,37 +2860,37 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="BB11">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="BC11">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="BD11">
-        <v>2.23</v>
+        <v>2.7</v>
       </c>
       <c r="BE11">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="BF11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BI11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ11">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BK11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:63">
@@ -2892,7 +2898,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5120994</v>
+        <v>5120996</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -2910,49 +2916,49 @@
         <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O12" t="s">
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
         <v>4</v>
       </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <v>6</v>
-      </c>
       <c r="T12">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="U12">
         <v>1.95</v>
       </c>
       <c r="V12">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="W12">
         <v>1.48</v>
@@ -2961,58 +2967,58 @@
         <v>2.5</v>
       </c>
       <c r="Y12">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Z12">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AA12">
         <v>7.5</v>
       </c>
       <c r="AB12">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC12">
-        <v>1.91</v>
+        <v>2.29</v>
       </c>
       <c r="AD12">
-        <v>3.17</v>
+        <v>3.12</v>
       </c>
       <c r="AE12">
-        <v>3.98</v>
+        <v>3</v>
       </c>
       <c r="AF12">
         <v>1.07</v>
       </c>
       <c r="AG12">
-        <v>8.85</v>
+        <v>9.1</v>
       </c>
       <c r="AH12">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AI12">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="AJ12">
-        <v>2.28</v>
+        <v>2.09</v>
       </c>
       <c r="AK12">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="AL12">
         <v>1.9</v>
       </c>
       <c r="AM12">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AN12">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="AO12">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AP12">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -3021,10 +3027,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT12">
-        <v>0.67</v>
+        <v>1.67</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3045,37 +3051,37 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="BB12">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="BC12">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="BD12">
-        <v>2.7</v>
+        <v>2.23</v>
       </c>
       <c r="BE12">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="BF12">
+        <v>7</v>
+      </c>
+      <c r="BG12">
         <v>6</v>
       </c>
-      <c r="BG12">
+      <c r="BH12">
+        <v>10</v>
+      </c>
+      <c r="BI12">
         <v>4</v>
       </c>
-      <c r="BH12">
-        <v>14</v>
-      </c>
-      <c r="BI12">
-        <v>5</v>
-      </c>
       <c r="BJ12">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BK12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:63">
@@ -3215,7 +3221,7 @@
         <v>1.33</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3465,7 +3471,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>5120999</v>
+        <v>5121004</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -3480,103 +3486,103 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O15" t="s">
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T15">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="W15">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="X15">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="Y15">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Z15">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AA15">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB15">
         <v>1.05</v>
       </c>
       <c r="AC15">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AD15">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AE15">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AF15">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AG15">
-        <v>7.5</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AH15">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AI15">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="AJ15">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="AK15">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="AL15">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AM15">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="AN15">
         <v>1.22</v>
@@ -3585,28 +3591,28 @@
         <v>1.28</v>
       </c>
       <c r="AP15">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AQ15">
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AT15">
-        <v>0.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU15">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AV15">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="AW15">
-        <v>2.53</v>
+        <v>1.29</v>
       </c>
       <c r="AX15">
         <v>0</v>
@@ -3618,37 +3624,37 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="BB15">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="BC15">
-        <v>2.1</v>
+        <v>2.48</v>
       </c>
       <c r="BD15">
-        <v>2.85</v>
+        <v>3.45</v>
       </c>
       <c r="BE15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BF15">
         <v>6</v>
       </c>
       <c r="BG15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH15">
+        <v>6</v>
+      </c>
+      <c r="BI15">
         <v>8</v>
       </c>
-      <c r="BI15">
-        <v>7</v>
-      </c>
       <c r="BJ15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BK15">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:63">
@@ -3656,7 +3662,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>5121004</v>
+        <v>5120999</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -3671,103 +3677,103 @@
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O16" t="s">
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="Q16">
+        <v>6</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>9</v>
+      </c>
+      <c r="T16">
+        <v>2.88</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
         <v>4</v>
       </c>
-      <c r="R16">
-        <v>4</v>
-      </c>
-      <c r="S16">
-        <v>8</v>
-      </c>
-      <c r="T16">
-        <v>2.63</v>
-      </c>
-      <c r="U16">
-        <v>1.95</v>
-      </c>
-      <c r="V16">
-        <v>4.5</v>
-      </c>
       <c r="W16">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="X16">
-        <v>2.35</v>
+        <v>2.62</v>
       </c>
       <c r="Y16">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Z16">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AA16">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB16">
         <v>1.05</v>
       </c>
       <c r="AC16">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AD16">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AE16">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AF16">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AG16">
-        <v>8.050000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="AH16">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AI16">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="AJ16">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AK16">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AL16">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AM16">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AN16">
         <v>1.22</v>
@@ -3776,28 +3782,28 @@
         <v>1.28</v>
       </c>
       <c r="AP16">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AQ16">
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AT16">
-        <v>1.75</v>
+        <v>0.33</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AV16">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AW16">
-        <v>1.29</v>
+        <v>2.53</v>
       </c>
       <c r="AX16">
         <v>0</v>
@@ -3809,37 +3815,37 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="BB16">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="BC16">
-        <v>2.48</v>
+        <v>2.1</v>
       </c>
       <c r="BD16">
-        <v>3.45</v>
+        <v>2.85</v>
       </c>
       <c r="BE16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF16">
         <v>6</v>
       </c>
       <c r="BG16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BK16">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:63">
@@ -3889,7 +3895,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4080,7 +4086,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4167,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT18">
         <v>0.5</v>
@@ -4244,7 +4250,7 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s">
         <v>73</v>
@@ -4271,7 +4277,7 @@
         <v>83</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4462,7 +4468,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4653,7 +4659,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4844,7 +4850,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5035,7 +5041,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5122,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT23">
         <v>0.67</v>
@@ -5226,7 +5232,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5316,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU24">
         <v>1.98</v>
@@ -5393,7 +5399,7 @@
         <v>79</v>
       </c>
       <c r="H25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5417,7 +5423,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6139,7 +6145,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>5121013</v>
+        <v>5121007</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -6154,10 +6160,10 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H29" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -6169,118 +6175,118 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="P29" t="s">
         <v>83</v>
       </c>
       <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
         <v>5</v>
       </c>
-      <c r="R29">
-        <v>4</v>
-      </c>
-      <c r="S29">
-        <v>9</v>
-      </c>
       <c r="T29">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="U29">
         <v>1.91</v>
       </c>
       <c r="V29">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="W29">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X29">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y29">
-        <v>3</v>
+        <v>3.24</v>
       </c>
       <c r="Z29">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AA29">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AB29">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AC29">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="AD29">
-        <v>2.88</v>
+        <v>2.99</v>
       </c>
       <c r="AE29">
-        <v>3.1</v>
+        <v>2.79</v>
       </c>
       <c r="AF29">
         <v>1.06</v>
       </c>
       <c r="AG29">
-        <v>9.35</v>
+        <v>7</v>
       </c>
       <c r="AH29">
+        <v>1.4</v>
+      </c>
+      <c r="AI29">
+        <v>2.75</v>
+      </c>
+      <c r="AJ29">
+        <v>2.25</v>
+      </c>
+      <c r="AK29">
         <v>1.5</v>
       </c>
-      <c r="AI29">
-        <v>2.6</v>
-      </c>
-      <c r="AJ29">
-        <v>2</v>
-      </c>
-      <c r="AK29">
-        <v>1.64</v>
-      </c>
       <c r="AL29">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="AM29">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AN29">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AO29">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AP29">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS29">
-        <v>3</v>
+        <v>0.67</v>
       </c>
       <c r="AT29">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AU29">
-        <v>2.17</v>
+        <v>0.95</v>
       </c>
       <c r="AV29">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AW29">
-        <v>3.56</v>
+        <v>0.95</v>
       </c>
       <c r="AX29">
         <v>0</v>
@@ -6307,22 +6313,22 @@
         <v>0</v>
       </c>
       <c r="BF29">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BG29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BI29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK29">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:63">
@@ -6330,7 +6336,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>5121007</v>
+        <v>5121013</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -6345,10 +6351,10 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -6360,118 +6366,118 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="P30" t="s">
         <v>83</v>
       </c>
       <c r="Q30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T30">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="U30">
         <v>1.91</v>
       </c>
       <c r="V30">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="W30">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X30">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y30">
-        <v>3.24</v>
+        <v>3</v>
       </c>
       <c r="Z30">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AA30">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AB30">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AC30">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AD30">
-        <v>2.99</v>
+        <v>2.88</v>
       </c>
       <c r="AE30">
-        <v>2.79</v>
+        <v>3.1</v>
       </c>
       <c r="AF30">
         <v>1.06</v>
       </c>
       <c r="AG30">
-        <v>7</v>
+        <v>9.35</v>
       </c>
       <c r="AH30">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AI30">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="AJ30">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AK30">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AL30">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="AM30">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="AN30">
+        <v>1.29</v>
+      </c>
+      <c r="AO30">
         <v>1.33</v>
       </c>
-      <c r="AO30">
-        <v>1.3</v>
-      </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS30">
-        <v>0.67</v>
+        <v>3</v>
       </c>
       <c r="AT30">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AU30">
-        <v>0.95</v>
+        <v>2.17</v>
       </c>
       <c r="AV30">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AW30">
-        <v>0.95</v>
+        <v>3.56</v>
       </c>
       <c r="AX30">
         <v>0</v>
@@ -6498,22 +6504,22 @@
         <v>0</v>
       </c>
       <c r="BF30">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BG30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BI30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK30">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:63">
@@ -6563,7 +6569,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6727,7 +6733,7 @@
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s">
         <v>73</v>
@@ -6945,7 +6951,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7136,7 +7142,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7285,7 +7291,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>5121142</v>
+        <v>5121020</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -7300,19 +7306,19 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>2</v>
@@ -7327,106 +7333,106 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S35">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V35">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="W35">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X35">
-        <v>2.59</v>
+        <v>2.4</v>
       </c>
       <c r="Y35">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="Z35">
         <v>1.33</v>
       </c>
       <c r="AA35">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AB35">
         <v>1.05</v>
       </c>
       <c r="AC35">
-        <v>2.14</v>
+        <v>2.03</v>
       </c>
       <c r="AD35">
-        <v>3.03</v>
+        <v>2.99</v>
       </c>
       <c r="AE35">
-        <v>3.56</v>
+        <v>3.46</v>
       </c>
       <c r="AF35">
         <v>1.03</v>
       </c>
       <c r="AG35">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="AH35">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AI35">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AJ35">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="AK35">
+        <v>1.59</v>
+      </c>
+      <c r="AL35">
+        <v>2</v>
+      </c>
+      <c r="AM35">
+        <v>1.75</v>
+      </c>
+      <c r="AN35">
+        <v>1.22</v>
+      </c>
+      <c r="AO35">
+        <v>1.28</v>
+      </c>
+      <c r="AP35">
         <v>1.63</v>
       </c>
-      <c r="AL35">
-        <v>1.83</v>
-      </c>
-      <c r="AM35">
-        <v>1.83</v>
-      </c>
-      <c r="AN35">
-        <v>1.33</v>
-      </c>
-      <c r="AO35">
-        <v>1.3</v>
-      </c>
-      <c r="AP35">
-        <v>1.57</v>
-      </c>
       <c r="AQ35">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AS35">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU35">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AV35">
-        <v>1.97</v>
+        <v>1.4</v>
       </c>
       <c r="AW35">
-        <v>3.8</v>
+        <v>3.31</v>
       </c>
       <c r="AX35">
         <v>0</v>
@@ -7444,7 +7450,7 @@
         <v>0</v>
       </c>
       <c r="BC35">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="BD35">
         <v>0</v>
@@ -7453,22 +7459,22 @@
         <v>0</v>
       </c>
       <c r="BF35">
+        <v>3</v>
+      </c>
+      <c r="BG35">
+        <v>4</v>
+      </c>
+      <c r="BH35">
+        <v>9</v>
+      </c>
+      <c r="BI35">
         <v>6</v>
-      </c>
-      <c r="BG35">
-        <v>5</v>
-      </c>
-      <c r="BH35">
-        <v>6</v>
-      </c>
-      <c r="BI35">
-        <v>7</v>
       </c>
       <c r="BJ35">
         <v>12</v>
       </c>
       <c r="BK35">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:63">
@@ -7476,7 +7482,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>5121020</v>
+        <v>5121142</v>
       </c>
       <c r="C36" t="s">
         <v>63</v>
@@ -7491,19 +7497,19 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H36" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36">
         <v>2</v>
@@ -7518,106 +7524,106 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q36">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S36">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T36">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="W36">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X36">
-        <v>2.4</v>
+        <v>2.59</v>
       </c>
       <c r="Y36">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="Z36">
         <v>1.33</v>
       </c>
       <c r="AA36">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AB36">
         <v>1.05</v>
       </c>
       <c r="AC36">
-        <v>2.03</v>
+        <v>2.14</v>
       </c>
       <c r="AD36">
-        <v>2.99</v>
+        <v>3.03</v>
       </c>
       <c r="AE36">
-        <v>3.46</v>
+        <v>3.56</v>
       </c>
       <c r="AF36">
         <v>1.03</v>
       </c>
       <c r="AG36">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="AH36">
+        <v>1.34</v>
+      </c>
+      <c r="AI36">
+        <v>2.88</v>
+      </c>
+      <c r="AJ36">
+        <v>2.15</v>
+      </c>
+      <c r="AK36">
+        <v>1.63</v>
+      </c>
+      <c r="AL36">
+        <v>1.83</v>
+      </c>
+      <c r="AM36">
+        <v>1.83</v>
+      </c>
+      <c r="AN36">
         <v>1.33</v>
       </c>
-      <c r="AI36">
-        <v>3</v>
-      </c>
-      <c r="AJ36">
-        <v>2.22</v>
-      </c>
-      <c r="AK36">
-        <v>1.59</v>
-      </c>
-      <c r="AL36">
-        <v>2</v>
-      </c>
-      <c r="AM36">
-        <v>1.75</v>
-      </c>
-      <c r="AN36">
-        <v>1.22</v>
-      </c>
       <c r="AO36">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AP36">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AQ36">
+        <v>3</v>
+      </c>
+      <c r="AR36">
         <v>1.5</v>
       </c>
-      <c r="AR36">
-        <v>0</v>
-      </c>
       <c r="AS36">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT36">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU36">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AV36">
-        <v>1.4</v>
+        <v>1.97</v>
       </c>
       <c r="AW36">
-        <v>3.31</v>
+        <v>3.8</v>
       </c>
       <c r="AX36">
         <v>0</v>
@@ -7635,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="BC36">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="BD36">
         <v>0</v>
@@ -7644,22 +7650,22 @@
         <v>0</v>
       </c>
       <c r="BF36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH36">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BI36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ36">
         <v>12</v>
       </c>
       <c r="BK36">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:63">
@@ -7873,7 +7879,7 @@
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s">
         <v>76</v>
@@ -8258,7 +8264,7 @@
         <v>70</v>
       </c>
       <c r="H40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -8282,7 +8288,7 @@
         <v>83</v>
       </c>
       <c r="P40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q40">
         <v>8</v>
@@ -8855,7 +8861,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q43">
         <v>15</v>
@@ -9213,7 +9219,7 @@
         <v>67</v>
       </c>
       <c r="H45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -9237,7 +9243,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9379,6 +9385,197 @@
       </c>
       <c r="BK45">
         <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:63">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5121024</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45006.75</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" t="s">
+        <v>71</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>5</v>
+      </c>
+      <c r="O46" t="s">
+        <v>113</v>
+      </c>
+      <c r="P46" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q46">
+        <v>7</v>
+      </c>
+      <c r="R46">
+        <v>5</v>
+      </c>
+      <c r="S46">
+        <v>12</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
+        <v>1.95</v>
+      </c>
+      <c r="V46">
+        <v>3.75</v>
+      </c>
+      <c r="W46">
+        <v>1.45</v>
+      </c>
+      <c r="X46">
+        <v>2.55</v>
+      </c>
+      <c r="Y46">
+        <v>3.05</v>
+      </c>
+      <c r="Z46">
+        <v>1.32</v>
+      </c>
+      <c r="AA46">
+        <v>7</v>
+      </c>
+      <c r="AB46">
+        <v>1.06</v>
+      </c>
+      <c r="AC46">
+        <v>1.66</v>
+      </c>
+      <c r="AD46">
+        <v>6.4</v>
+      </c>
+      <c r="AE46">
+        <v>2.84</v>
+      </c>
+      <c r="AF46">
+        <v>1.07</v>
+      </c>
+      <c r="AG46">
+        <v>9.1</v>
+      </c>
+      <c r="AH46">
+        <v>1.35</v>
+      </c>
+      <c r="AI46">
+        <v>2.97</v>
+      </c>
+      <c r="AJ46">
+        <v>2.08</v>
+      </c>
+      <c r="AK46">
+        <v>1.59</v>
+      </c>
+      <c r="AL46">
+        <v>1.82</v>
+      </c>
+      <c r="AM46">
+        <v>1.88</v>
+      </c>
+      <c r="AN46">
+        <v>1.32</v>
+      </c>
+      <c r="AO46">
+        <v>1.28</v>
+      </c>
+      <c r="AP46">
+        <v>1.55</v>
+      </c>
+      <c r="AQ46">
+        <v>1.67</v>
+      </c>
+      <c r="AR46">
+        <v>1</v>
+      </c>
+      <c r="AS46">
+        <v>2</v>
+      </c>
+      <c r="AT46">
+        <v>0.75</v>
+      </c>
+      <c r="AU46">
+        <v>1.87</v>
+      </c>
+      <c r="AV46">
+        <v>1.83</v>
+      </c>
+      <c r="AW46">
+        <v>3.7</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>1.24</v>
+      </c>
+      <c r="BB46">
+        <v>1.45</v>
+      </c>
+      <c r="BC46">
+        <v>1.88</v>
+      </c>
+      <c r="BD46">
+        <v>2.35</v>
+      </c>
+      <c r="BE46">
+        <v>3.2</v>
+      </c>
+      <c r="BF46">
+        <v>6</v>
+      </c>
+      <c r="BG46">
+        <v>9</v>
+      </c>
+      <c r="BH46">
+        <v>14</v>
+      </c>
+      <c r="BI46">
+        <v>2</v>
+      </c>
+      <c r="BJ46">
+        <v>20</v>
+      </c>
+      <c r="BK46">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="139">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,6 +358,9 @@
     <t>['29', '32', '40']</t>
   </si>
   <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['14']</t>
   </si>
   <si>
@@ -425,6 +428,9 @@
   </si>
   <si>
     <t>['45+1', '79']</t>
+  </si>
+  <si>
+    <t>['73', '79']</t>
   </si>
 </sst>
 </file>
@@ -786,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK46"/>
+  <dimension ref="A1:BK48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1030,7 +1036,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1308,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT3">
         <v>0.33</v>
@@ -1690,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT5">
         <v>2</v>
@@ -1985,7 +1991,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -2176,7 +2182,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2367,7 +2373,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2749,7 +2755,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -2940,7 +2946,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3221,7 +3227,7 @@
         <v>1.33</v>
       </c>
       <c r="AT13">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3513,7 +3519,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3895,7 +3901,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -3982,7 +3988,7 @@
         <v>3</v>
       </c>
       <c r="AS17">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT17">
         <v>1</v>
@@ -4086,7 +4092,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4176,7 +4182,7 @@
         <v>2</v>
       </c>
       <c r="AT18">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU18">
         <v>2.15</v>
@@ -4277,7 +4283,7 @@
         <v>83</v>
       </c>
       <c r="P19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4468,7 +4474,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4659,7 +4665,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4850,7 +4856,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -4937,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT22">
         <v>0</v>
@@ -5041,7 +5047,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5232,7 +5238,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5322,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="AT24">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU24">
         <v>1.98</v>
@@ -5423,7 +5429,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6569,7 +6575,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6656,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT31">
         <v>0.33</v>
@@ -6951,7 +6957,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7142,7 +7148,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7229,10 +7235,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT34">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU34">
         <v>1.97</v>
@@ -7333,7 +7339,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7524,7 +7530,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -7614,7 +7620,7 @@
         <v>2.25</v>
       </c>
       <c r="AT36">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU36">
         <v>1.83</v>
@@ -8288,7 +8294,7 @@
         <v>83</v>
       </c>
       <c r="P40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q40">
         <v>8</v>
@@ -8861,7 +8867,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q43">
         <v>15</v>
@@ -9243,7 +9249,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9434,7 +9440,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9524,7 +9530,7 @@
         <v>2</v>
       </c>
       <c r="AT46">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU46">
         <v>1.87</v>
@@ -9576,6 +9582,388 @@
       </c>
       <c r="BK46">
         <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:63">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5121037</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45010.75</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" t="s">
+        <v>67</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47" t="s">
+        <v>83</v>
+      </c>
+      <c r="P47" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q47">
+        <v>10</v>
+      </c>
+      <c r="R47">
+        <v>3</v>
+      </c>
+      <c r="S47">
+        <v>13</v>
+      </c>
+      <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="U47">
+        <v>1.91</v>
+      </c>
+      <c r="V47">
+        <v>4</v>
+      </c>
+      <c r="W47">
+        <v>1.56</v>
+      </c>
+      <c r="X47">
+        <v>2.31</v>
+      </c>
+      <c r="Y47">
+        <v>3.34</v>
+      </c>
+      <c r="Z47">
+        <v>1.27</v>
+      </c>
+      <c r="AA47">
+        <v>8</v>
+      </c>
+      <c r="AB47">
+        <v>1.05</v>
+      </c>
+      <c r="AC47">
+        <v>2.2</v>
+      </c>
+      <c r="AD47">
+        <v>2.88</v>
+      </c>
+      <c r="AE47">
+        <v>3.25</v>
+      </c>
+      <c r="AF47">
+        <v>1.06</v>
+      </c>
+      <c r="AG47">
+        <v>6.8</v>
+      </c>
+      <c r="AH47">
+        <v>1.51</v>
+      </c>
+      <c r="AI47">
+        <v>2.4</v>
+      </c>
+      <c r="AJ47">
+        <v>2.35</v>
+      </c>
+      <c r="AK47">
+        <v>1.5</v>
+      </c>
+      <c r="AL47">
+        <v>2.1</v>
+      </c>
+      <c r="AM47">
+        <v>1.7</v>
+      </c>
+      <c r="AN47">
+        <v>1.25</v>
+      </c>
+      <c r="AO47">
+        <v>1.3</v>
+      </c>
+      <c r="AP47">
+        <v>1.57</v>
+      </c>
+      <c r="AQ47">
+        <v>1.33</v>
+      </c>
+      <c r="AR47">
+        <v>0.5</v>
+      </c>
+      <c r="AS47">
+        <v>1</v>
+      </c>
+      <c r="AT47">
+        <v>1.33</v>
+      </c>
+      <c r="AU47">
+        <v>1.61</v>
+      </c>
+      <c r="AV47">
+        <v>1.18</v>
+      </c>
+      <c r="AW47">
+        <v>2.79</v>
+      </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
+      <c r="BA47">
+        <v>1.34</v>
+      </c>
+      <c r="BB47">
+        <v>1.63</v>
+      </c>
+      <c r="BC47">
+        <v>2.1</v>
+      </c>
+      <c r="BD47">
+        <v>2.85</v>
+      </c>
+      <c r="BE47">
+        <v>4</v>
+      </c>
+      <c r="BF47">
+        <v>3</v>
+      </c>
+      <c r="BG47">
+        <v>4</v>
+      </c>
+      <c r="BH47">
+        <v>13</v>
+      </c>
+      <c r="BI47">
+        <v>2</v>
+      </c>
+      <c r="BJ47">
+        <v>16</v>
+      </c>
+      <c r="BK47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:63">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5121032</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45011.5</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48" t="s">
+        <v>114</v>
+      </c>
+      <c r="P48" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q48">
+        <v>4</v>
+      </c>
+      <c r="R48">
+        <v>9</v>
+      </c>
+      <c r="S48">
+        <v>13</v>
+      </c>
+      <c r="T48">
+        <v>2.6</v>
+      </c>
+      <c r="U48">
+        <v>1.95</v>
+      </c>
+      <c r="V48">
+        <v>4.75</v>
+      </c>
+      <c r="W48">
+        <v>1.51</v>
+      </c>
+      <c r="X48">
+        <v>2.4</v>
+      </c>
+      <c r="Y48">
+        <v>3.3</v>
+      </c>
+      <c r="Z48">
+        <v>1.29</v>
+      </c>
+      <c r="AA48">
+        <v>7.75</v>
+      </c>
+      <c r="AB48">
+        <v>1.05</v>
+      </c>
+      <c r="AC48">
+        <v>1.8</v>
+      </c>
+      <c r="AD48">
+        <v>3.2</v>
+      </c>
+      <c r="AE48">
+        <v>4.2</v>
+      </c>
+      <c r="AF48">
+        <v>1.05</v>
+      </c>
+      <c r="AG48">
+        <v>8.35</v>
+      </c>
+      <c r="AH48">
+        <v>1.44</v>
+      </c>
+      <c r="AI48">
+        <v>2.65</v>
+      </c>
+      <c r="AJ48">
+        <v>2.1</v>
+      </c>
+      <c r="AK48">
+        <v>1.6</v>
+      </c>
+      <c r="AL48">
+        <v>2.1</v>
+      </c>
+      <c r="AM48">
+        <v>1.68</v>
+      </c>
+      <c r="AN48">
+        <v>1.16</v>
+      </c>
+      <c r="AO48">
+        <v>1.25</v>
+      </c>
+      <c r="AP48">
+        <v>1.9</v>
+      </c>
+      <c r="AQ48">
+        <v>2.33</v>
+      </c>
+      <c r="AR48">
+        <v>0.75</v>
+      </c>
+      <c r="AS48">
+        <v>1.75</v>
+      </c>
+      <c r="AT48">
+        <v>1.2</v>
+      </c>
+      <c r="AU48">
+        <v>1.98</v>
+      </c>
+      <c r="AV48">
+        <v>1.79</v>
+      </c>
+      <c r="AW48">
+        <v>3.77</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>0</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>9</v>
+      </c>
+      <c r="BG48">
+        <v>6</v>
+      </c>
+      <c r="BH48">
+        <v>9</v>
+      </c>
+      <c r="BI48">
+        <v>6</v>
+      </c>
+      <c r="BJ48">
+        <v>18</v>
+      </c>
+      <c r="BK48">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="148">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,24 @@
     <t>['31']</t>
   </si>
   <si>
+    <t>['65', '86', '90+1']</t>
+  </si>
+  <si>
+    <t>['76', '90+3', '90+5']</t>
+  </si>
+  <si>
+    <t>['7', '39']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['21', '54', '79', '89']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['14']</t>
   </si>
   <si>
@@ -431,6 +449,15 @@
   </si>
   <si>
     <t>['73', '79']</t>
+  </si>
+  <si>
+    <t>['50', '81']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['43', '75']</t>
   </si>
 </sst>
 </file>
@@ -792,7 +819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK48"/>
+  <dimension ref="A1:BK54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,7 +1063,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1123,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT2">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1317,7 +1344,7 @@
         <v>1.75</v>
       </c>
       <c r="AT3">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1991,7 +2018,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -2081,7 +2108,7 @@
         <v>2.25</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2182,7 +2209,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2373,7 +2400,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2651,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT10">
         <v>0</v>
@@ -2755,7 +2782,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -2842,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT11">
         <v>0.67</v>
@@ -2946,7 +2973,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3033,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT12">
         <v>1.67</v>
@@ -3418,7 +3445,7 @@
         <v>3</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3519,7 +3546,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3606,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT15">
         <v>1.75</v>
@@ -3800,7 +3827,7 @@
         <v>1.5</v>
       </c>
       <c r="AT16">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU16">
         <v>1.4</v>
@@ -3901,7 +3928,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4092,7 +4119,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4283,7 +4310,7 @@
         <v>83</v>
       </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4370,7 +4397,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT19">
         <v>2</v>
@@ -4474,7 +4501,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4561,10 +4588,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU20">
         <v>2.07</v>
@@ -4665,7 +4692,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4755,7 +4782,7 @@
         <v>2.25</v>
       </c>
       <c r="AT21">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU21">
         <v>2.35</v>
@@ -4856,7 +4883,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5047,7 +5074,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5238,7 +5265,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5429,7 +5456,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5710,7 +5737,7 @@
         <v>3</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6089,7 +6116,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT28">
         <v>1.67</v>
@@ -6575,7 +6602,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6665,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="AT31">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU31">
         <v>1.25</v>
@@ -6853,7 +6880,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT32">
         <v>2</v>
@@ -6957,7 +6984,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7044,10 +7071,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT33">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU33">
         <v>1.66</v>
@@ -7148,7 +7175,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7339,7 +7366,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7426,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT35">
         <v>0</v>
@@ -7530,7 +7557,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -7999,10 +8026,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU38">
         <v>1.85</v>
@@ -8190,7 +8217,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT39">
         <v>0.5</v>
@@ -8294,7 +8321,7 @@
         <v>83</v>
       </c>
       <c r="P40" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q40">
         <v>8</v>
@@ -8867,7 +8894,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q43">
         <v>15</v>
@@ -9249,7 +9276,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9440,7 +9467,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9631,7 +9658,7 @@
         <v>83</v>
       </c>
       <c r="P47" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q47">
         <v>10</v>
@@ -9822,7 +9849,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -9964,6 +9991,1152 @@
       </c>
       <c r="BK48">
         <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:63">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5121031</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45011.75</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+      <c r="O49" t="s">
+        <v>115</v>
+      </c>
+      <c r="P49" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q49">
+        <v>4</v>
+      </c>
+      <c r="R49">
+        <v>4</v>
+      </c>
+      <c r="S49">
+        <v>8</v>
+      </c>
+      <c r="T49">
+        <v>3.2</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <v>3.4</v>
+      </c>
+      <c r="W49">
+        <v>1.48</v>
+      </c>
+      <c r="X49">
+        <v>2.5</v>
+      </c>
+      <c r="Y49">
+        <v>3.05</v>
+      </c>
+      <c r="Z49">
+        <v>1.32</v>
+      </c>
+      <c r="AA49">
+        <v>7.25</v>
+      </c>
+      <c r="AB49">
+        <v>1.06</v>
+      </c>
+      <c r="AC49">
+        <v>2.4</v>
+      </c>
+      <c r="AD49">
+        <v>3.15</v>
+      </c>
+      <c r="AE49">
+        <v>2.6</v>
+      </c>
+      <c r="AF49">
+        <v>1.06</v>
+      </c>
+      <c r="AG49">
+        <v>9.4</v>
+      </c>
+      <c r="AH49">
+        <v>1.38</v>
+      </c>
+      <c r="AI49">
+        <v>2.9</v>
+      </c>
+      <c r="AJ49">
+        <v>2.15</v>
+      </c>
+      <c r="AK49">
+        <v>1.62</v>
+      </c>
+      <c r="AL49">
+        <v>1.87</v>
+      </c>
+      <c r="AM49">
+        <v>1.87</v>
+      </c>
+      <c r="AN49">
+        <v>1.38</v>
+      </c>
+      <c r="AO49">
+        <v>1.28</v>
+      </c>
+      <c r="AP49">
+        <v>1.44</v>
+      </c>
+      <c r="AQ49">
+        <v>3</v>
+      </c>
+      <c r="AR49">
+        <v>0.33</v>
+      </c>
+      <c r="AS49">
+        <v>3</v>
+      </c>
+      <c r="AT49">
+        <v>0.25</v>
+      </c>
+      <c r="AU49">
+        <v>1.87</v>
+      </c>
+      <c r="AV49">
+        <v>1.36</v>
+      </c>
+      <c r="AW49">
+        <v>3.23</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>8</v>
+      </c>
+      <c r="BG49">
+        <v>3</v>
+      </c>
+      <c r="BH49">
+        <v>9</v>
+      </c>
+      <c r="BI49">
+        <v>6</v>
+      </c>
+      <c r="BJ49">
+        <v>17</v>
+      </c>
+      <c r="BK49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:63">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>5121035</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45011.75</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>5</v>
+      </c>
+      <c r="O50" t="s">
+        <v>116</v>
+      </c>
+      <c r="P50" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q50">
+        <v>4</v>
+      </c>
+      <c r="R50">
+        <v>6</v>
+      </c>
+      <c r="S50">
+        <v>10</v>
+      </c>
+      <c r="T50">
+        <v>2.88</v>
+      </c>
+      <c r="U50">
+        <v>2</v>
+      </c>
+      <c r="V50">
+        <v>3.75</v>
+      </c>
+      <c r="W50">
+        <v>1.45</v>
+      </c>
+      <c r="X50">
+        <v>2.55</v>
+      </c>
+      <c r="Y50">
+        <v>3.1</v>
+      </c>
+      <c r="Z50">
+        <v>1.32</v>
+      </c>
+      <c r="AA50">
+        <v>7.6</v>
+      </c>
+      <c r="AB50">
+        <v>1.06</v>
+      </c>
+      <c r="AC50">
+        <v>2.05</v>
+      </c>
+      <c r="AD50">
+        <v>3.15</v>
+      </c>
+      <c r="AE50">
+        <v>3.15</v>
+      </c>
+      <c r="AF50">
+        <v>1.06</v>
+      </c>
+      <c r="AG50">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH50">
+        <v>1.35</v>
+      </c>
+      <c r="AI50">
+        <v>2.96</v>
+      </c>
+      <c r="AJ50">
+        <v>2</v>
+      </c>
+      <c r="AK50">
+        <v>1.7</v>
+      </c>
+      <c r="AL50">
+        <v>1.85</v>
+      </c>
+      <c r="AM50">
+        <v>1.85</v>
+      </c>
+      <c r="AN50">
+        <v>1.3</v>
+      </c>
+      <c r="AO50">
+        <v>1.28</v>
+      </c>
+      <c r="AP50">
+        <v>1.65</v>
+      </c>
+      <c r="AQ50">
+        <v>2</v>
+      </c>
+      <c r="AR50">
+        <v>1</v>
+      </c>
+      <c r="AS50">
+        <v>2.33</v>
+      </c>
+      <c r="AT50">
+        <v>0.75</v>
+      </c>
+      <c r="AU50">
+        <v>1.94</v>
+      </c>
+      <c r="AV50">
+        <v>1.65</v>
+      </c>
+      <c r="AW50">
+        <v>3.59</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>0</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50">
+        <v>5</v>
+      </c>
+      <c r="BG50">
+        <v>5</v>
+      </c>
+      <c r="BH50">
+        <v>10</v>
+      </c>
+      <c r="BI50">
+        <v>1</v>
+      </c>
+      <c r="BJ50">
+        <v>15</v>
+      </c>
+      <c r="BK50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:63">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5121033</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45011.85416666666</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51" t="s">
+        <v>69</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>117</v>
+      </c>
+      <c r="P51" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q51">
+        <v>4</v>
+      </c>
+      <c r="R51">
+        <v>3</v>
+      </c>
+      <c r="S51">
+        <v>7</v>
+      </c>
+      <c r="T51">
+        <v>2.6</v>
+      </c>
+      <c r="U51">
+        <v>2</v>
+      </c>
+      <c r="V51">
+        <v>4.5</v>
+      </c>
+      <c r="W51">
+        <v>1.45</v>
+      </c>
+      <c r="X51">
+        <v>2.6</v>
+      </c>
+      <c r="Y51">
+        <v>2.94</v>
+      </c>
+      <c r="Z51">
+        <v>1.35</v>
+      </c>
+      <c r="AA51">
+        <v>7.6</v>
+      </c>
+      <c r="AB51">
+        <v>1.05</v>
+      </c>
+      <c r="AC51">
+        <v>1.9</v>
+      </c>
+      <c r="AD51">
+        <v>3.15</v>
+      </c>
+      <c r="AE51">
+        <v>3.65</v>
+      </c>
+      <c r="AF51">
+        <v>1.03</v>
+      </c>
+      <c r="AG51">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH51">
+        <v>1.33</v>
+      </c>
+      <c r="AI51">
+        <v>3.1</v>
+      </c>
+      <c r="AJ51">
+        <v>2</v>
+      </c>
+      <c r="AK51">
+        <v>1.7</v>
+      </c>
+      <c r="AL51">
+        <v>1.85</v>
+      </c>
+      <c r="AM51">
+        <v>1.9</v>
+      </c>
+      <c r="AN51">
+        <v>1.2</v>
+      </c>
+      <c r="AO51">
+        <v>1.25</v>
+      </c>
+      <c r="AP51">
+        <v>1.72</v>
+      </c>
+      <c r="AQ51">
+        <v>2</v>
+      </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
+      <c r="AS51">
+        <v>2.25</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AU51">
+        <v>1.76</v>
+      </c>
+      <c r="AV51">
+        <v>1.01</v>
+      </c>
+      <c r="AW51">
+        <v>2.77</v>
+      </c>
+      <c r="AX51">
+        <v>0</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <v>0</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <v>1.9</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BE51">
+        <v>0</v>
+      </c>
+      <c r="BF51">
+        <v>7</v>
+      </c>
+      <c r="BG51">
+        <v>2</v>
+      </c>
+      <c r="BH51">
+        <v>14</v>
+      </c>
+      <c r="BI51">
+        <v>10</v>
+      </c>
+      <c r="BJ51">
+        <v>21</v>
+      </c>
+      <c r="BK51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:63">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>5121034</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45011.85416666666</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" t="s">
+        <v>70</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52" t="s">
+        <v>118</v>
+      </c>
+      <c r="P52" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q52">
+        <v>6</v>
+      </c>
+      <c r="R52">
+        <v>4</v>
+      </c>
+      <c r="S52">
+        <v>10</v>
+      </c>
+      <c r="T52">
+        <v>2.75</v>
+      </c>
+      <c r="U52">
+        <v>2</v>
+      </c>
+      <c r="V52">
+        <v>4</v>
+      </c>
+      <c r="W52">
+        <v>1.48</v>
+      </c>
+      <c r="X52">
+        <v>2.5</v>
+      </c>
+      <c r="Y52">
+        <v>3.2</v>
+      </c>
+      <c r="Z52">
+        <v>1.3</v>
+      </c>
+      <c r="AA52">
+        <v>8.5</v>
+      </c>
+      <c r="AB52">
+        <v>1.05</v>
+      </c>
+      <c r="AC52">
+        <v>2</v>
+      </c>
+      <c r="AD52">
+        <v>3.15</v>
+      </c>
+      <c r="AE52">
+        <v>3.35</v>
+      </c>
+      <c r="AF52">
+        <v>1.07</v>
+      </c>
+      <c r="AG52">
+        <v>8.6</v>
+      </c>
+      <c r="AH52">
+        <v>1.4</v>
+      </c>
+      <c r="AI52">
+        <v>2.8</v>
+      </c>
+      <c r="AJ52">
+        <v>2.2</v>
+      </c>
+      <c r="AK52">
+        <v>1.6</v>
+      </c>
+      <c r="AL52">
+        <v>1.95</v>
+      </c>
+      <c r="AM52">
+        <v>1.8</v>
+      </c>
+      <c r="AN52">
+        <v>1.25</v>
+      </c>
+      <c r="AO52">
+        <v>1.28</v>
+      </c>
+      <c r="AP52">
+        <v>1.68</v>
+      </c>
+      <c r="AQ52">
+        <v>1.33</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>1.25</v>
+      </c>
+      <c r="AT52">
+        <v>0.33</v>
+      </c>
+      <c r="AU52">
+        <v>1.61</v>
+      </c>
+      <c r="AV52">
+        <v>0.9</v>
+      </c>
+      <c r="AW52">
+        <v>2.51</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>1.72</v>
+      </c>
+      <c r="BD52">
+        <v>0</v>
+      </c>
+      <c r="BE52">
+        <v>0</v>
+      </c>
+      <c r="BF52">
+        <v>3</v>
+      </c>
+      <c r="BG52">
+        <v>3</v>
+      </c>
+      <c r="BH52">
+        <v>12</v>
+      </c>
+      <c r="BI52">
+        <v>3</v>
+      </c>
+      <c r="BJ52">
+        <v>15</v>
+      </c>
+      <c r="BK52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:63">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>5121030</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45012.75</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>4</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>6</v>
+      </c>
+      <c r="O53" t="s">
+        <v>119</v>
+      </c>
+      <c r="P53" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q53">
+        <v>2</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>4</v>
+      </c>
+      <c r="T53">
+        <v>2.88</v>
+      </c>
+      <c r="U53">
+        <v>1.91</v>
+      </c>
+      <c r="V53">
+        <v>4</v>
+      </c>
+      <c r="W53">
+        <v>1.54</v>
+      </c>
+      <c r="X53">
+        <v>2.36</v>
+      </c>
+      <c r="Y53">
+        <v>3.42</v>
+      </c>
+      <c r="Z53">
+        <v>1.27</v>
+      </c>
+      <c r="AA53">
+        <v>9.1</v>
+      </c>
+      <c r="AB53">
+        <v>1.04</v>
+      </c>
+      <c r="AC53">
+        <v>1.9</v>
+      </c>
+      <c r="AD53">
+        <v>3.1</v>
+      </c>
+      <c r="AE53">
+        <v>3.76</v>
+      </c>
+      <c r="AF53">
+        <v>1.06</v>
+      </c>
+      <c r="AG53">
+        <v>6.8</v>
+      </c>
+      <c r="AH53">
+        <v>1.5</v>
+      </c>
+      <c r="AI53">
+        <v>2.45</v>
+      </c>
+      <c r="AJ53">
+        <v>2.3</v>
+      </c>
+      <c r="AK53">
+        <v>1.52</v>
+      </c>
+      <c r="AL53">
+        <v>2.05</v>
+      </c>
+      <c r="AM53">
+        <v>1.72</v>
+      </c>
+      <c r="AN53">
+        <v>1.22</v>
+      </c>
+      <c r="AO53">
+        <v>1.28</v>
+      </c>
+      <c r="AP53">
+        <v>1.66</v>
+      </c>
+      <c r="AQ53">
+        <v>0.5</v>
+      </c>
+      <c r="AR53">
+        <v>0.33</v>
+      </c>
+      <c r="AS53">
+        <v>1.33</v>
+      </c>
+      <c r="AT53">
+        <v>0.25</v>
+      </c>
+      <c r="AU53">
+        <v>1.61</v>
+      </c>
+      <c r="AV53">
+        <v>1.64</v>
+      </c>
+      <c r="AW53">
+        <v>3.25</v>
+      </c>
+      <c r="AX53">
+        <v>0</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
+      <c r="AZ53">
+        <v>0</v>
+      </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>0</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>8</v>
+      </c>
+      <c r="BG53">
+        <v>6</v>
+      </c>
+      <c r="BH53">
+        <v>11</v>
+      </c>
+      <c r="BI53">
+        <v>7</v>
+      </c>
+      <c r="BJ53">
+        <v>19</v>
+      </c>
+      <c r="BK53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:63">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>5121036</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45012.75</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>120</v>
+      </c>
+      <c r="P54" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q54">
+        <v>5</v>
+      </c>
+      <c r="R54">
+        <v>7</v>
+      </c>
+      <c r="S54">
+        <v>12</v>
+      </c>
+      <c r="T54">
+        <v>2.25</v>
+      </c>
+      <c r="U54">
+        <v>2.05</v>
+      </c>
+      <c r="V54">
+        <v>5.5</v>
+      </c>
+      <c r="W54">
+        <v>1.46</v>
+      </c>
+      <c r="X54">
+        <v>2.55</v>
+      </c>
+      <c r="Y54">
+        <v>3.04</v>
+      </c>
+      <c r="Z54">
+        <v>1.33</v>
+      </c>
+      <c r="AA54">
+        <v>8.1</v>
+      </c>
+      <c r="AB54">
+        <v>1.04</v>
+      </c>
+      <c r="AC54">
+        <v>1.7</v>
+      </c>
+      <c r="AD54">
+        <v>3.35</v>
+      </c>
+      <c r="AE54">
+        <v>4.38</v>
+      </c>
+      <c r="AF54">
+        <v>1.04</v>
+      </c>
+      <c r="AG54">
+        <v>7.6</v>
+      </c>
+      <c r="AH54">
+        <v>1.38</v>
+      </c>
+      <c r="AI54">
+        <v>2.9</v>
+      </c>
+      <c r="AJ54">
+        <v>2.14</v>
+      </c>
+      <c r="AK54">
+        <v>1.6</v>
+      </c>
+      <c r="AL54">
+        <v>2.1</v>
+      </c>
+      <c r="AM54">
+        <v>1.68</v>
+      </c>
+      <c r="AN54">
+        <v>1.11</v>
+      </c>
+      <c r="AO54">
+        <v>1.22</v>
+      </c>
+      <c r="AP54">
+        <v>2.15</v>
+      </c>
+      <c r="AQ54">
+        <v>2.33</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <v>2.5</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <v>1.87</v>
+      </c>
+      <c r="AV54">
+        <v>1.36</v>
+      </c>
+      <c r="AW54">
+        <v>3.23</v>
+      </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
+        <v>0</v>
+      </c>
+      <c r="BA54">
+        <v>0</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>0</v>
+      </c>
+      <c r="BD54">
+        <v>0</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <v>6</v>
+      </c>
+      <c r="BG54">
+        <v>4</v>
+      </c>
+      <c r="BH54">
+        <v>5</v>
+      </c>
+      <c r="BI54">
+        <v>10</v>
+      </c>
+      <c r="BJ54">
+        <v>11</v>
+      </c>
+      <c r="BK54">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK54"/>
+  <dimension ref="A1:BK56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT2" t="n">
         <v>0.25</v>
@@ -1106,7 +1106,7 @@
         <v>1.75</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT15" t="n">
         <v>1.75</v>
@@ -3745,7 +3745,7 @@
         <v>1.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU16" t="n">
         <v>1.4</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT20" t="n">
         <v>0.75</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU33" t="n">
         <v>1.66</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT35" t="n">
         <v>0</v>
@@ -10444,7 +10444,7 @@
         <v>3</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU49" t="n">
         <v>1.87</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT51" t="n">
         <v>0</v>
@@ -11253,7 +11253,7 @@
         <v>0.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT53" t="n">
         <v>0.25</v>
@@ -11511,6 +11511,412 @@
       </c>
       <c r="BK54" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5120988</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45018.72916666666</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Univ. Concepción</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7</v>
+      </c>
+      <c r="S55" t="n">
+        <v>10</v>
+      </c>
+      <c r="T55" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5121111</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45018.83333333334</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Cobreloa</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="n">
+        <v>5</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['59', '71', '90+3', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -11778,13 +11778,13 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R56" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T56" t="n">
         <v>2.4</v>
@@ -11901,22 +11901,22 @@
         <v>0</v>
       </c>
       <c r="BF56" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG56" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH56" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BI56" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ56" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BK56" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
